--- a/search_result.xlsx
+++ b/search_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>File name</t>
+          <t>Image name</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -468,22 +468,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>N.R.A. Stung by Corruption Verdict Tied to Millions of Misspent Dollars</t>
+          <t>All Eyes Are on Red Bull in F1 This Season</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Feb. 23</t>
+          <t>11h ago</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A Manhattan jury found that the National Rifle Association’s former leader, Wayne LaPierre, had used the group’s funds to pay for lavish personal expenses, including vacations and luxury flights.</t>
+          <t>It ran away with last season, so this first race of 2024 may show how dominant its new car is and if other teams have caught up.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23nra-verdict-hjzk-threeByTwoSmallAt2X.png</t>
+          <t>output\images\29sp-bahrain-preview-inyt-gwpc-threeByTwoSmallAt2X.png</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -496,28 +496,1848 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>How to Rest</t>
+          <t>The Show That Made Me Love Formula One</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Feb. 17</t>
+          <t>11h ago</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>It’s a long weekend. How will you balance the urge to accomplish with the urge to go climb back into bed?</t>
+          <t>And more sports documentaries to watch right now.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17themorning-threeByTwoSmallAt2X.png</t>
+          <t>** No image on Website **</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Last-Place Haas Makes Big Changes for F1’s 2024 Season and Beyond</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11h ago</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The team dropped its popular team principal, made an engineer the new boss and is hoping for better results. But they may not come this year.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>output\images\29sp-bahrain-haas-inyt-01-qblp-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>New F1 Team Names Bring Money, Marketing and Lots of Syllables</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11h ago</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>The additional words focus on the gambling, streaming and financial services brands that the Formula 1 teams represent.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>output\images\29sp-bahrain-names-inyt-02-zwbv-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Can Restoring the Nation’s Highest Business Tax Fix N.J. Transit?</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Feb. 27</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Gov. Philip D. Murphy, who let an 11.5 percent tax expire at the end of last year, proposed bringing it back for corporations with $10 million in profit.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>output\images\27nj-budget-01-mtql-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lead-Tainted Applesauce Sailed Through Gaps in Food-Safety System</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Feb. 27</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Hundreds of American children were poisoned last year. Records show how, time and again, the contamination went unnoticed.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>output\images\00FOODSAFETY-pzgj-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tuesday Briefing</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Feb. 27</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Progress on Gaza cease-fire negotiations.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>output\images\27ambriefing-europe-nl-gaza-Promo-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Monday Briefing</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Feb. 26</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ukraine said 31,000 of its soldiers had been killed.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>output\images\26-am-briefing-europe-ukraine-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Zong Qinghou, Beverage Tycoon in China, Dies at 79</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Feb. 25</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A bitter but successful battle with Danone of France for control of a joint venture made him the richest person in China for a time.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>output\images\25zong-01-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>The Joy of Stoop Books</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Feb. 24</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Why is it that books found in giveaway piles cast such a spell on us?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>output\images\24themorning-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Where Did the ‘True Detective’ Magic Go? To Another Show.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Feb. 23</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>When the best sequel technically isn’t one.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>output\images\23douthat-newsletter-art-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Confused About Michigan’s Primary and Convention? You’re Not Alone.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Feb. 23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Republicans will use both a primary on Feb. 27 and a statewide nominating convention on March 2 to award presidential delegates.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>output\images\00pol-mi-explain-1-mwgq-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Smell the Music: Inviting a Perfumer Into the Concert Hall</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Feb. 23</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mathilde Laurent, Cartier’s perfumer, has created a scent poem that enhances the experience of Scriabin’s synesthetic score for “Prometheus.”</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>output\images\25PROMETHEUS-05-fkqc-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Friday Briefing</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Feb. 23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Two years of war in Ukraine.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>output\images\00-ukraine-asianl-fphw-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Thursday Briefing</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Feb. 21</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>U.S. warns of a possible Russian space weapon.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>output\images\22ambriefing-euro-Russia-jcvg-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A New Orleans Man Wants His Opossum Back. Thousands Have Joined His Plea.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Feb. 21</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>The much-loved marsupial, Saffron, was known to frequent the French Quarter with his owner. A friend started a petition for the opossum’s return after state wildlife authorities seized him this month.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>output\images\21xp-opossum-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Does Biden Have to Cede the White Working Class to Trump?</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Feb. 21</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Democratic strategists are asking whether the president’s attempt to recapture these voters is a fool’s errand.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>output\images\21edsall1-bclw-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>How Tom Sandoval Became the Most Hated Man in America</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Feb. 20</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>He turned last year’s season of ‘Vanderpump Rules’ into the best in reality TV’s history — and ruined his life in the process.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>output\images\25mag-Vanderpump-04-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>In New York, the Trump Brand Is Costing Some Condo Owners</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Feb. 18</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>When Donald J. Trump became president, condominiums in buildings emblazoned with his name began selling for less, according to an analysis.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>output\images\18trumpbrand8-wmpj-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Friday Briefing</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Feb. 16</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A March trial date for Donald Trump.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>output\images\16ambriefing-euro-Trump-hgbj-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>For Tobias Menzies, Acting Is All About Less Is More</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Feb. 15</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>The British actor excels at playing reserve, and what roils beneath, on “The Crown.” And now he brings that stoicism to “The Hunt,” onstage in Brooklyn.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>output\images\16TOBIAS-01-fzlq-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Thursday Briefing</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Feb. 15</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Russian advances on a space-based nuclear weapon.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>output\images\15ambriefing-euro-Russia-chgk-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Rethinking the Prospects of a ‘Soft Landing’</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Feb. 14</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Worries of higher-for-longer interest rates have grown since Tuesday’s Consumer Price Index report.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>output\images\14db-nolanding-fmwc-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Miami Steps Up in the Watch World</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Feb. 14</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>While the city has long attracted both brands and buyers, some recent changes are turning it into a shopping destination.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>output\images\15sp-watches-miami-inyt-01-kmbv-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>These Days, Watches Are for Almost Anywhere but the Wrist</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Feb. 14</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>From Taylor Swift to Rihanna, Emma Chamberlain to Julia Fox, celebrities are turning the watch world upside down (or even sideways).</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>output\images\15sp-watches-celebrity-inyt-lfbv-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Monday Briefing</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Feb. 12</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Trump’s anti-NATO outburst.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>output\images\12ambriefing-europe-nl-trump-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Pro Sports in Las Vegas Aren’t Cheered by Everyone</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Feb. 9</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>The Super Bowl will be played at Allegiant Stadium, which received $750 million in public subsidies even as the city’s schools and other services have gone wanting.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>output\images\09Vegas-Sports-bpzt-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Usher’s Road to the Super Bowl</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Feb. 9</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>The singer will perform at halftime of the N.F.L.’s championship game in Las Vegas on the heels of his popular career-spanning residency and the release of a new album.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>output\images\09SB-USHERGUIDE-bkjq-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Friday Briefing</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Feb. 9</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A special counsel clears Biden.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>output\images\09ambriefing-euro-Biden-02-qtkf-threeByTwoSmallAt2X-v2.png</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Some Colleges Are Pivoting as FAFSA Delays Drag On</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Feb. 8</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>The state schools in California and many other colleges are extending their May 1 commitment deadlines. Some are also creating new aid forms.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>output\images\08college-pivot-klmq-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>David Lynch’s Parisian Club Comes to New York</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Feb. 8</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A new Midtown Manhattan outpost of Silencio, the French nightclub, filled its smoky room with some of the art world’s biggest names.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>output\images\08PARTY-REPORT-SILENCIO-01-qhwt-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Can a Vegas Legend Get Super Bowl Tickets? (Asking for Carrot Top.)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Feb. 8</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A city known for major events and extravagance is hosting the country’s biggest sporting event. It is not business as usual.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>output\images\08SUPER-BOWL-IMPACT-new-wgmf-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Thursday Briefing</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Feb. 8</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A U.S. strike kills a militia commander in Iraq.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>output\images\08ambriefing-euro-Iraq-fhmk-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>It’s a Big Weekend for Football. And for Fancy Jets.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Feb. 7</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Around 1,000 private aircraft are expected at Las Vegas airports for the Super Bowl. It matters for climate change, and maybe for Taylor Swift, too.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>output\images\07cli-privatejets-03-qkmz-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>The Best Movies and TV Shows Coming to Netflix in February</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Feb. 6</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A live-action remake of “Avatar: The Last Airbender” and a new season of “The Tourist” highlight the new offerings this month.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>output\images\05netflix-new-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>WeWork’s Co-Founder Is Trying to Buy the Company</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Feb. 6</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Adam Neumann, the co-working company’s onetime chief, has sought for months to buy the now-bankrupt business, but accuses its current leaders of stonewalling him.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>output\images\06dealbook-newsletter-neumann-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Will Families Pay Less With Two Students in College? Now, It Depends.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Feb. 3</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>The federal financial aid formula used to give a break to families with two or more children in college at a time. That’s gone now, and some schools may not fill the gap.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>output\images\03money-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Friday Briefing</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Feb. 1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>The E.U. reached a Ukraine aid deal.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>output\images\02ambriefing-euro-Ukr-jpbh-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>The E.U. Agreed to Aid Ukraine, Shifting Focus to the U.S.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Feb. 1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Also, the world’s largest record label pulled its songs from TikTok. Here’s the latest at the end of Thursday.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>output\images\01evening-nl-biden-threeByTwoSmallAt2X-v3.png</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Old-Time Modernity: Cycladic Art at the Met</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Feb. 1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A major collection of early Greek figures and vessels takes up long-term residence in New York — a transformative event.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>output\images\01cycladic-met-review-03-tblg-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Thursday Briefing</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Feb. 1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>An E.U. summit on aid for Ukraine.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>output\images\01ambriefing-euro-Ukr-pkfq-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>How to Wash Your Hair</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Jan. 29</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A guide to building an effective, adaptable routine for every hair type.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>output\images\14tmag-hair-slide-Q9BL-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>How Some Families Are Breaking the Rules to Apply for Financial Aid</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Jan. 27</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Experts are already encouraging students and parents to exchange usernames and passwords to expedite aid applications. One problem: It’s not legal.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>output\images\13money-01-mcpw-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>When Soccer’s Content Mine Loses Sight of Reality</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Jan. 27</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>As documentaries and series about teams proliferate, it’s easy to pine for the ones that offered the clearest windows into the game.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>output\images\26rory-chelsea-vqlt-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>You Saw Jason Kelce. This Guy Saw ‘The Feast of Bacchus.’</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Jan. 26</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>With his Art But Make It Sports social media accounts, LJ Rader connects the drama and pathos of classic artwork to viral moments in sports. And no, he’s not using A.I.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>output\images\26ART-BUT-SPORTS-promo-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>A Red Velvet Bistro in an Istanbul Villa</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Jan. 25</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Plus: jewelry handmade with Roman coins, vintage Estée Lauder fragrances and more recommendations from T Magazine.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>output\images\24tmag-tlist-slide-P18Z-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Thursday Briefing</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Jan. 25</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A military plane crash near the Russian border.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>output\images\25ambriefing-euro-Ukr-Rus-plane-pzjw-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Watch Adam Driver Keep Time in a Scene From ‘Ferrari’</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Jan. 19</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>The director Michael Mann narrates a sequence from his biopic about Enzo Ferrari.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>output\images\ferrari-anatomy1-flgq-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Friday Briefing</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Jan. 19</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Here’s what you need to know.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>output\images\18ambriefing-euro-Israel-Palestinians-jtqv-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ballet Flats for the Bow Obsessed</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Jan. 18</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Plus: a cafe and farm shop in Marrakesh, remedies for the under-eye area and more recommendations from T Magazine.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>output\images\17tmag-tlist-slide-SNYB-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>In a Rare Move, Singapore Charges a Government Minister With Corruption</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Jan. 18</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Accused of accepting tickets to “Hamilton,” air travel and soccer games in Britain, the transport official resigned before he pleaded not guilty in court.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>output\images\18singapore-corruption-vfjm-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>A Watch Collaboration Includes a London Landmark</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Jan. 18</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>A special-edition Bovet timepiece celebrates the history and future of the Old War Office building, which now contains residences, a hotel and more.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>output\images\19sp-watches-bovet-inytSUB-tpck-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Thursday Briefing</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Jan. 18</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Missile strikes by Iran.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>output\images\18ambriefing-euro-missiles-mgqk-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Migrant Costs Help Push New York State’s Budget to $233 Billion</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Jan. 16</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Gov. Kathy Hochul’s new spending plan, unveiled on Tuesday, also called for investments in mental health care and for an important change to the way that cannabis is taxed.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>output\images\16ny-budget-fgvq-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>With Producers Guild Nominations, the Oscar Picture Gets Clearer</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Jan. 12</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>“Barbie,” “Oppenheimer” and “Killers of the Flower Moon” made the cut as they did for the directors and actors groups. But “The Color Purple” was left out.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>output\images\18barbie-review-alert-threeByTwoSmallAt2X-v2.png</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>What Is the ‘Wind Chill Index,’ Anyway?</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Jan. 12</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sure, it’s cold out. But how do meteorologists measure how cold it feels?</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>output\images\12wea-windchill-explained-jfkq-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>WTA and ATP Are Facing a Year of Formative Change</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Jan. 12</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Tennis is trying to reposition itself by altering tournaments and spreading more money around.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>output\images\13sp-australian-changes-inyt-01-twbg-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Friday Briefing</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Jan. 12</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>What’s at stake in Taiwan’s election.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>output\images\12ambriefing-euro-Taiwan-kcjv-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Paul Giamatti Has Done the Reading</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Jan. 7</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>For his role in “The Holdovers,” set at a prep school not unlike the one he attended, the hyper-literate actor mined his own dormant memories.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>output\images\07PAUL-GIAMATTI-01-hwvk-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>After the Capitol Attack, Companies Pledged to Rethink Political Giving. Did They?</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Jan. 6</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>A new analysis of corporate PAC donations shines light on an opaque political giving landscape.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>output\images\06DB-FUNDRAISING-BIDEN-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>U.S. News Makes Money From Some of Its Biggest Critics: Colleges</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Jan. 6</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>U.S. News sells “badges” to colleges, so they can promote their rankings — whether they are 1st, 10th or much, much lower.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>output\images\00nat-rankings-2-01-hkbt-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Questlove Made You an Energy Playlist</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Jan. 5</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>These 17 tracks will get you moving.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>output\images\06Well-JanChall-Day6-Questlove-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>6 New Paperbacks to Read This Week</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Jan. 5</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>This week's selection includes titles by Kyle Chayka, Matthew Delmont, Laura Zigman and more.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>output\images\05PAPERBACK-BURST-BOOK-07-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Read the Newest Menendez Indictment</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Jan. 2</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Federal prosecutors on Tuesday indicted Senator Robert Menendez of New Jersey again, this time accusing him of using his authority to assist the government of Qatar.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>output\images\doc-1435309-menendez-indictme-promo-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Menendez Faces a New Accusation: Aiding the Qatari Government</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Jan. 2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Federal prosecutors said Senator Robert Menendez, a New Jersey Democrat, accepted tens of thousands of dollars in bribes to help Qatar’s government.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>output\images\02menendez-nj-qzkg-threeByTwoSmallAt2X-v2.png</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>I Spent New Year’s Eve Trying to Do the FAFSA. It Didn’t Go Well.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Jan. 1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>The new, simplified version of the college student aid form was supposed to become available in December. It was, kind of, for some people.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>output\images\01money-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Monday Briefing</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Jan. 1</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Friction between the U.S. and Israel.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>output\images\01ambriefing-europe-nl-israel-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="b">
         <v>0</v>
       </c>
     </row>

--- a/search_result.xlsx
+++ b/search_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>output\images\29sp-bahrain-preview-inyt-gwpc-threeByTwoSmallAt2X.png</t>
+          <t>output\29sp-bahrain-preview-inyt-gwpc-threeByTwoSmallAt2X.png</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -511,7 +511,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>output\images\29sp-bahrain-haas-inyt-01-qblp-threeByTwoSmallAt2X.png</t>
+          <t>output\29sp-bahrain-haas-inyt-01-qblp-threeByTwoSmallAt2X.png</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -539,7 +539,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>output\images\29sp-bahrain-names-inyt-02-zwbv-threeByTwoSmallAt2X.png</t>
+          <t>output\29sp-bahrain-names-inyt-02-zwbv-threeByTwoSmallAt2X.png</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -567,7 +567,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>output\images\13sp-australian-changes-inyt-01-twbg-threeByTwoSmallAt2X.png</t>
+          <t>output\13sp-australian-changes-inyt-01-twbg-threeByTwoSmallAt2X.png</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -595,7 +595,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>output\images\14sp-review-redbull-inyt-01-jzbh-threeByTwoSmallAt2X.png</t>
+          <t>output\14sp-review-redbull-inyt-01-jzbh-threeByTwoSmallAt2X.png</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -623,7 +623,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>output\images\14sp-review-cars-inyt-02-wkvz-threeByTwoSmallAt2X.png</t>
+          <t>output\14sp-review-cars-inyt-02-wkvz-threeByTwoSmallAt2X.png</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -651,7 +651,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>output\images\14sp-review-aston-inyt-05-mftl-threeByTwoSmallAt2X.png</t>
+          <t>output\14sp-review-aston-inyt-05-mftl-threeByTwoSmallAt2X.png</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -679,7 +679,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>output\images\14sp-review-teams-inyt-02-ghmz-threeByTwoSmallAt2X.png</t>
+          <t>output\14sp-review-teams-inyt-02-ghmz-threeByTwoSmallAt2X.png</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -707,7 +707,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>output\images\14sp-review-tost-inyt-thlv-threeByTwoSmallAt2X.png</t>
+          <t>output\14sp-review-tost-inyt-thlv-threeByTwoSmallAt2X.png</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -735,13 +735,125 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>output\images\09sp-year-roundup-inyt-01-fcwt-threeByTwoSmallAt2X.png</t>
+          <t>output\09sp-year-roundup-inyt-01-fcwt-threeByTwoSmallAt2X.png</t>
         </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Gianpiero Lambiase Is the Man in Max Verstappen’s Ear</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nov. 23, 2023</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>The race engineer gives advice to the driver on the radio during races. Their relationship has been described as a long marriage.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>output\25sp-dhabi-lambiase-inyt-02-hvqf-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>On Second Thought, Haas Is Staying Put</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nov. 23, 2023</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Gene Haas once considered selling the team, but changes in F1 have convinced him not to.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>output\25sp-dhabi-haas-inyt-01-wphb-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>McLaren Is No Longer Caught in the Middle of Formula 1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nov. 23, 2023</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>The team started the year as another lackluster midfield team, but big changes have moved it to No. 4.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>output\25sp-dhabi-mclaren-inyt-01-hlcq-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>The Power and Speed of Jannik Sinner</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nov. 10, 2023</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sinner, 22, has dominating talent and has already beaten many of tennis’s top players.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>output\11sp-atp-sinner-inyt3-glvf-threeByTwoSmallAt2X.png</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
